--- a/Tests/Files/month.xlsx
+++ b/Tests/Files/month.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -76,27 +76,6 @@
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -474,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,11 +474,6 @@
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Подвиды</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
@@ -538,262 +512,115 @@
           <t>Среднее абс. отклонение</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Подвиды</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Название локации</t>
+          <t>Номер месяца</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Год</t>
+          <t>Месяц</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>loc1</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>2010</v>
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8.143000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.414</v>
+        <v>3.078</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>+-</t>
-        </is>
+        <v>2.449</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n">
-        <v>2011</v>
+      <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>июнь</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>10.333</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16.333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.041</v>
+      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>+-</t>
-        </is>
+        <v>3.111</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>loc2</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>2010</v>
+      <c r="A6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>июль</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>11.5</v>
+        <v>11.667</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>24.5</v>
+        <v>22.333</v>
       </c>
       <c r="H6" t="n">
-        <v>4.95</v>
+        <v>4.726</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>++</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.828</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>++</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>loc3</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.155</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-+</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>loc4</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-+</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-+</t>
-        </is>
+        <v>3.556</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
